--- a/resource/data/nan_data_fill.xlsx
+++ b/resource/data/nan_data_fill.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\프로젝트-1차\데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069045BD-8CB8-4638-8419-AC01DA2BBC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0ACBB-A71F-4B7C-8769-52AE5439DE49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="16596" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>도서관명</t>
   </si>
@@ -82,12 +82,6 @@
     <t>함평군 함평읍 신기산길 46-12</t>
   </si>
   <si>
-    <t>김해기적의도서관</t>
-  </si>
-  <si>
-    <t>경상남도 김해시 장유면 율하1로 55</t>
-  </si>
-  <si>
     <t>해남공공도서관</t>
   </si>
   <si>
@@ -463,14 +457,6 @@
   </si>
   <si>
     <t>35.0669677</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.1757447</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>128.810693</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1082,22 +1068,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="59.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="5" max="5" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1112,41 +1096,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>342</v>
       </c>
@@ -1154,16 +1138,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>343</v>
       </c>
@@ -1171,33 +1155,33 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>399</v>
       </c>
@@ -1205,16 +1189,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>401</v>
       </c>
@@ -1222,16 +1206,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>405</v>
       </c>
@@ -1239,16 +1223,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>498</v>
       </c>
@@ -1256,16 +1240,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>501</v>
       </c>
@@ -1273,16 +1257,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>502</v>
       </c>
@@ -1290,16 +1274,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>503</v>
       </c>
@@ -1307,16 +1291,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>526</v>
       </c>
@@ -1324,16 +1308,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>542</v>
       </c>
@@ -1341,16 +1325,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>543</v>
       </c>
@@ -1358,16 +1342,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>545</v>
       </c>
@@ -1375,16 +1359,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>546</v>
       </c>
@@ -1392,16 +1376,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>587</v>
       </c>
@@ -1412,15 +1396,15 @@
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1429,83 +1413,83 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>688</v>
+        <v>818</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>906</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>818</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>906</v>
+        <v>1841</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1848</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>1841</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+      <c r="E24" s="2">
+        <v>127.2336401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1848</v>
+        <v>1917</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1514,15 +1498,15 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="2">
-        <v>127.2336401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1917</v>
+        <v>2310</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -1531,15 +1515,15 @@
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1548,15 +1532,15 @@
         <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1565,15 +1549,15 @@
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1582,15 +1566,15 @@
         <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1599,15 +1583,15 @@
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1616,15 +1600,15 @@
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -1633,15 +1617,15 @@
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>2319</v>
+        <v>2420</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1650,15 +1634,15 @@
         <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -1667,15 +1651,15 @@
         <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>2421</v>
+        <v>2428</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1684,15 +1668,15 @@
         <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>2428</v>
+        <v>3020</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1701,15 +1685,15 @@
         <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -1718,15 +1702,15 @@
         <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
@@ -1735,49 +1719,49 @@
         <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>3023</v>
+        <v>3198</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>3198</v>
+        <v>3375</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -1786,15 +1770,15 @@
         <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>3375</v>
+        <v>3379</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
@@ -1803,15 +1787,15 @@
         <v>62</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>3379</v>
+        <v>3391</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -1820,15 +1804,15 @@
         <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>3391</v>
+        <v>3589</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
@@ -1837,15 +1821,15 @@
         <v>66</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>3589</v>
+        <v>3621</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -1854,44 +1838,27 @@
         <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
-        <v>70</v>
+      <c r="C46" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
-        <v>3623</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
